--- a/tests/Import/import_master_item_test.xlsx
+++ b/tests/Import/import_master_item_test.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="37">
   <si>
     <t>No</t>
   </si>
@@ -136,39 +136,6 @@
   </si>
   <si>
     <t>BR013</t>
-  </si>
-  <si>
-    <t>BR014</t>
-  </si>
-  <si>
-    <t>BR015</t>
-  </si>
-  <si>
-    <t>BR016</t>
-  </si>
-  <si>
-    <t>BR017</t>
-  </si>
-  <si>
-    <t>BR018</t>
-  </si>
-  <si>
-    <t>BR019</t>
-  </si>
-  <si>
-    <t>BR020</t>
-  </si>
-  <si>
-    <t>BR021</t>
-  </si>
-  <si>
-    <t>BR022</t>
-  </si>
-  <si>
-    <t>BR023</t>
-  </si>
-  <si>
-    <t>BR024</t>
   </si>
   <si>
     <t>$#$23</t>
@@ -527,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:M27"/>
+  <dimension ref="C3:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="C6" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -941,10 +908,10 @@
         <v>15</v>
       </c>
       <c r="F14" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H14" t="s">
         <v>11</v>
@@ -1027,12 +994,6 @@
       <c r="C17">
         <v>14</v>
       </c>
-      <c r="D17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17" t="s">
-        <v>15</v>
-      </c>
       <c r="J17" t="s">
         <v>18</v>
       </c>
@@ -1043,356 +1004,6 @@
         <v>1</v>
       </c>
       <c r="M17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C18">
-        <v>15</v>
-      </c>
-      <c r="D18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>24</v>
-      </c>
-      <c r="H18" t="s">
-        <v>11</v>
-      </c>
-      <c r="I18" t="s">
-        <v>16</v>
-      </c>
-      <c r="J18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K18" t="s">
-        <v>19</v>
-      </c>
-      <c r="L18" t="b">
-        <v>1</v>
-      </c>
-      <c r="M18" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C19">
-        <v>16</v>
-      </c>
-      <c r="D19" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>2</v>
-      </c>
-      <c r="H19" t="s">
-        <v>11</v>
-      </c>
-      <c r="I19" t="s">
-        <v>12</v>
-      </c>
-      <c r="J19" t="s">
-        <v>17</v>
-      </c>
-      <c r="K19" t="s">
-        <v>13</v>
-      </c>
-      <c r="L19" t="b">
-        <v>0</v>
-      </c>
-      <c r="M19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C20">
-        <v>17</v>
-      </c>
-      <c r="D20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>10</v>
-      </c>
-      <c r="H20" t="s">
-        <v>11</v>
-      </c>
-      <c r="I20" t="s">
-        <v>16</v>
-      </c>
-      <c r="J20" t="s">
-        <v>18</v>
-      </c>
-      <c r="K20" t="s">
-        <v>19</v>
-      </c>
-      <c r="L20" t="b">
-        <v>1</v>
-      </c>
-      <c r="M20" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C21">
-        <v>18</v>
-      </c>
-      <c r="D21" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>24</v>
-      </c>
-      <c r="H21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I21" t="s">
-        <v>16</v>
-      </c>
-      <c r="J21" t="s">
-        <v>22</v>
-      </c>
-      <c r="K21" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" t="b">
-        <v>1</v>
-      </c>
-      <c r="M21" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C22">
-        <v>19</v>
-      </c>
-      <c r="D22" t="s">
-        <v>40</v>
-      </c>
-      <c r="E22" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>2</v>
-      </c>
-      <c r="H22" t="s">
-        <v>11</v>
-      </c>
-      <c r="I22" t="s">
-        <v>12</v>
-      </c>
-      <c r="J22" t="s">
-        <v>17</v>
-      </c>
-      <c r="K22" t="s">
-        <v>13</v>
-      </c>
-      <c r="L22" t="b">
-        <v>0</v>
-      </c>
-      <c r="M22" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C23">
-        <v>20</v>
-      </c>
-      <c r="D23" t="s">
-        <v>41</v>
-      </c>
-      <c r="E23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>10</v>
-      </c>
-      <c r="H23" t="s">
-        <v>11</v>
-      </c>
-      <c r="I23" t="s">
-        <v>16</v>
-      </c>
-      <c r="J23" t="s">
-        <v>18</v>
-      </c>
-      <c r="K23" t="s">
-        <v>19</v>
-      </c>
-      <c r="L23" t="b">
-        <v>1</v>
-      </c>
-      <c r="M23" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C24">
-        <v>21</v>
-      </c>
-      <c r="D24" t="s">
-        <v>42</v>
-      </c>
-      <c r="E24" t="s">
-        <v>21</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>24</v>
-      </c>
-      <c r="H24" t="s">
-        <v>11</v>
-      </c>
-      <c r="I24" t="s">
-        <v>16</v>
-      </c>
-      <c r="J24" t="s">
-        <v>22</v>
-      </c>
-      <c r="K24" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" t="b">
-        <v>1</v>
-      </c>
-      <c r="M24" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C25">
-        <v>22</v>
-      </c>
-      <c r="D25" t="s">
-        <v>43</v>
-      </c>
-      <c r="E25" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>2</v>
-      </c>
-      <c r="H25" t="s">
-        <v>11</v>
-      </c>
-      <c r="I25" t="s">
-        <v>12</v>
-      </c>
-      <c r="J25" t="s">
-        <v>17</v>
-      </c>
-      <c r="K25" t="s">
-        <v>13</v>
-      </c>
-      <c r="L25" t="b">
-        <v>0</v>
-      </c>
-      <c r="M25" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C26">
-        <v>23</v>
-      </c>
-      <c r="D26" t="s">
-        <v>44</v>
-      </c>
-      <c r="E26" t="s">
-        <v>15</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>10</v>
-      </c>
-      <c r="H26" t="s">
-        <v>11</v>
-      </c>
-      <c r="I26" t="s">
-        <v>16</v>
-      </c>
-      <c r="J26" t="s">
-        <v>18</v>
-      </c>
-      <c r="K26" t="s">
-        <v>19</v>
-      </c>
-      <c r="L26" t="b">
-        <v>1</v>
-      </c>
-      <c r="M26" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C27">
-        <v>24</v>
-      </c>
-      <c r="D27" t="s">
-        <v>45</v>
-      </c>
-      <c r="E27" t="s">
-        <v>21</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>24</v>
-      </c>
-      <c r="H27" t="s">
-        <v>11</v>
-      </c>
-      <c r="I27" t="s">
-        <v>16</v>
-      </c>
-      <c r="J27" t="s">
-        <v>22</v>
-      </c>
-      <c r="K27" t="s">
-        <v>19</v>
-      </c>
-      <c r="L27" t="b">
-        <v>1</v>
-      </c>
-      <c r="M27" t="b">
         <v>1</v>
       </c>
     </row>

--- a/tests/Import/import_master_item_test.xlsx
+++ b/tests/Import/import_master_item_test.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Point\point\tests\Import\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\white\code\point\tests\Import\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE861945-14E5-46F9-90CB-0AB10AA1F68E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="7032"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,19 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="35">
   <si>
     <t>No</t>
   </si>
@@ -136,18 +130,12 @@
   </si>
   <si>
     <t>BR013</t>
-  </si>
-  <si>
-    <t>$#$23</t>
-  </si>
-  <si>
-    <t>%$%#</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -493,145 +481,216 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:M17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="C1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C6" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.88671875" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
-    <col min="7" max="8" width="17.88671875" customWidth="1"/>
-    <col min="9" max="9" width="39.88671875" customWidth="1"/>
-    <col min="10" max="10" width="31.21875" customWidth="1"/>
-    <col min="12" max="12" width="12.88671875" customWidth="1"/>
-    <col min="13" max="13" width="13.44140625" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="17.85546875" customWidth="1"/>
+    <col min="9" max="9" width="39.85546875" customWidth="1"/>
+    <col min="10" max="10" width="31.28515625" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" customWidth="1"/>
+    <col min="13" max="13" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C3" t="s">
+    <row r="1" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
         <v>0</v>
       </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>2</v>
+      </c>
       <c r="D3" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>24</v>
+      </c>
+      <c r="H4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" t="b">
+        <v>1</v>
+      </c>
+      <c r="M4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
         <v>2</v>
       </c>
-      <c r="F3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="H5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C6">
         <v>5</v>
       </c>
-      <c r="K3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L3" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
         <v>10</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-      <c r="H4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L4" t="b">
-        <v>0</v>
-      </c>
-      <c r="M4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>10</v>
-      </c>
-      <c r="H5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L5" t="b">
-        <v>1</v>
-      </c>
-      <c r="M5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>24</v>
       </c>
       <c r="H6" t="s">
         <v>11</v>
@@ -640,7 +699,7 @@
         <v>16</v>
       </c>
       <c r="J6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="K6" t="s">
         <v>19</v>
@@ -652,91 +711,91 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>24</v>
+      </c>
+      <c r="H7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" t="b">
+        <v>1</v>
+      </c>
+      <c r="M7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
         <v>2</v>
       </c>
-      <c r="H7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="H8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" t="s">
         <v>12</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J8" t="s">
         <v>17</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K8" t="s">
         <v>13</v>
       </c>
-      <c r="L7" t="b">
+      <c r="L8" t="b">
         <v>0</v>
       </c>
-      <c r="M7" t="b">
+      <c r="M8" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C8">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" t="s">
+    <row r="9" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
         <v>15</v>
       </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
         <v>10</v>
-      </c>
-      <c r="H8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K8" t="s">
-        <v>19</v>
-      </c>
-      <c r="L8" t="b">
-        <v>1</v>
-      </c>
-      <c r="M8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C9">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>24</v>
       </c>
       <c r="H9" t="s">
         <v>11</v>
@@ -745,7 +804,7 @@
         <v>16</v>
       </c>
       <c r="J9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="K9" t="s">
         <v>19</v>
@@ -757,91 +816,91 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C10">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>24</v>
+      </c>
+      <c r="H10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" t="b">
+        <v>1</v>
+      </c>
+      <c r="M10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C11">
         <v>10</v>
       </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>2</v>
-      </c>
-      <c r="H10" t="s">
-        <v>11</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="D11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>20</v>
+      </c>
+      <c r="H11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" t="s">
         <v>12</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J11" t="s">
         <v>17</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K11" t="s">
         <v>13</v>
       </c>
-      <c r="L10" t="b">
+      <c r="L11" t="b">
         <v>0</v>
       </c>
-      <c r="M10" t="b">
+      <c r="M11" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C11">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" t="s">
+    <row r="12" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" t="s">
         <v>15</v>
       </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>10</v>
-      </c>
-      <c r="H11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I11" t="s">
-        <v>16</v>
-      </c>
-      <c r="J11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K11" t="s">
-        <v>19</v>
-      </c>
-      <c r="L11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C12">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" t="s">
-        <v>21</v>
-      </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="H12" t="s">
         <v>11</v>
@@ -850,7 +909,7 @@
         <v>16</v>
       </c>
       <c r="J12" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="K12" t="s">
         <v>19</v>
@@ -862,100 +921,67 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>24</v>
+      </c>
+      <c r="H13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s">
+        <v>22</v>
+      </c>
+      <c r="K13" t="s">
+        <v>19</v>
+      </c>
+      <c r="L13" t="b">
+        <v>1</v>
+      </c>
+      <c r="M13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" t="s">
         <v>10</v>
       </c>
-      <c r="D13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>2.39031329399139E+23</v>
-      </c>
-      <c r="H13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I13" t="s">
-        <v>12</v>
-      </c>
-      <c r="J13" t="s">
+      <c r="J14" t="s">
         <v>17</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K14" t="s">
         <v>13</v>
       </c>
-      <c r="L13" t="b">
+      <c r="L14" t="b">
         <v>0</v>
       </c>
-      <c r="M13" t="b">
+      <c r="M14" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C14">
-        <v>11</v>
-      </c>
-      <c r="D14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" t="s">
-        <v>36</v>
-      </c>
-      <c r="G14" t="s">
-        <v>35</v>
-      </c>
-      <c r="H14" t="s">
-        <v>11</v>
-      </c>
-      <c r="I14" t="s">
-        <v>16</v>
-      </c>
-      <c r="J14" t="s">
+    <row r="15" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="J15" t="s">
         <v>18</v>
-      </c>
-      <c r="K14" t="s">
-        <v>19</v>
-      </c>
-      <c r="L14" t="b">
-        <v>1</v>
-      </c>
-      <c r="M14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C15">
-        <v>12</v>
-      </c>
-      <c r="D15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>24</v>
-      </c>
-      <c r="H15" t="s">
-        <v>11</v>
-      </c>
-      <c r="I15" t="s">
-        <v>16</v>
-      </c>
-      <c r="J15" t="s">
-        <v>22</v>
       </c>
       <c r="K15" t="s">
         <v>19</v>
@@ -964,46 +990,6 @@
         <v>1</v>
       </c>
       <c r="M15" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C16">
-        <v>13</v>
-      </c>
-      <c r="D16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" t="s">
-        <v>10</v>
-      </c>
-      <c r="J16" t="s">
-        <v>17</v>
-      </c>
-      <c r="K16" t="s">
-        <v>13</v>
-      </c>
-      <c r="L16" t="b">
-        <v>0</v>
-      </c>
-      <c r="M16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C17">
-        <v>14</v>
-      </c>
-      <c r="J17" t="s">
-        <v>18</v>
-      </c>
-      <c r="K17" t="s">
-        <v>19</v>
-      </c>
-      <c r="L17" t="b">
-        <v>1</v>
-      </c>
-      <c r="M17" t="b">
         <v>1</v>
       </c>
     </row>
